--- a/Test_Cases_Res.xlsx
+++ b/Test_Cases_Res.xlsx
@@ -42,9 +42,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,21 +414,550 @@
         <v>1.1</v>
       </c>
       <c r="D2" t="str">
+        <v>Bangladesh</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F2" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Visa</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F3" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v>1.3</v>
+      </c>
+      <c r="D4" t="str">
         <v>Climate</v>
       </c>
-      <c r="E2" s="1">
-        <v>44202.45099474537</v>
-      </c>
-      <c r="F2" t="str">
+      <c r="E4" t="str">
+        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F4" t="str">
         <v>PASS</v>
       </c>
-      <c r="G2" t="str">
-        <v>FAIL</v>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Official language</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F5" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F6" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Culture</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F7" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v>1.7</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Geography</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F8" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="D9" t="str">
+        <v>History</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F9" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Political system</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F10" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>TC 1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Dhaka</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2.1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Dhaka</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Wed Jan 06 2021 11:48:33 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F11" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Weather</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Wed Jan 06 2021 11:48:33 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F12" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v>2.3</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Events</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Wed Jan 06 2021 11:48:33 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F13" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v>2.4</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Climate</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Wed Jan 06 2021 11:48:33 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F14" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v>2.5</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Wed Jan 06 2021 11:48:33 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F15" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v>2.6</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Culture</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Wed Jan 06 2021 11:48:33 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F16" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v>2.7</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Demographics</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Wed Jan 06 2021 11:48:33 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F17" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>TC 1</v>
+      </c>
+      <c r="B18" t="str">
+        <v>USA</v>
+      </c>
+      <c r="C18" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="D18" t="str">
+        <v>United States</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F18" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Visa</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F19" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Climate</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F20" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Economy</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F21" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Culture</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F22" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Geography</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F23" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="D24" t="str">
+        <v>History</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F24" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Political system</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
+      </c>
+      <c r="F25" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Test_Cases_Res.xlsx
+++ b/Test_Cases_Res.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,6 +402,9 @@
       <c r="G1" t="str">
         <v>Rerun</v>
       </c>
+      <c r="H1" t="str">
+        <v>failedInfo</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -417,10 +420,10 @@
         <v>Bangladesh</v>
       </c>
       <c r="E2" t="str">
-        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F2" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -440,7 +443,7 @@
         <v>Visa</v>
       </c>
       <c r="E3" t="str">
-        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F3" t="str">
         <v>PASS</v>
@@ -463,7 +466,7 @@
         <v>Climate</v>
       </c>
       <c r="E4" t="str">
-        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F4" t="str">
         <v>PASS</v>
@@ -486,7 +489,7 @@
         <v>Official language</v>
       </c>
       <c r="E5" t="str">
-        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F5" t="str">
         <v>FAIL</v>
@@ -509,7 +512,7 @@
         <v>Economy</v>
       </c>
       <c r="E6" t="str">
-        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F6" t="str">
         <v>PASS</v>
@@ -532,7 +535,7 @@
         <v>Culture</v>
       </c>
       <c r="E7" t="str">
-        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F7" t="str">
         <v>PASS</v>
@@ -555,7 +558,7 @@
         <v>Geography</v>
       </c>
       <c r="E8" t="str">
-        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F8" t="str">
         <v>PASS</v>
@@ -578,7 +581,7 @@
         <v>History</v>
       </c>
       <c r="E9" t="str">
-        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F9" t="str">
         <v>PASS</v>
@@ -601,7 +604,7 @@
         <v>Political system</v>
       </c>
       <c r="E10" t="str">
-        <v>Wed Jan 06 2021 11:48:13 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F10" t="str">
         <v>PASS</v>
@@ -624,7 +627,7 @@
         <v>Dhaka</v>
       </c>
       <c r="E11" t="str">
-        <v>Wed Jan 06 2021 11:48:33 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:57 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F11" t="str">
         <v>PASS</v>
@@ -647,7 +650,7 @@
         <v>Weather</v>
       </c>
       <c r="E12" t="str">
-        <v>Wed Jan 06 2021 11:48:33 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:57 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F12" t="str">
         <v>PASS</v>
@@ -670,7 +673,7 @@
         <v>Events</v>
       </c>
       <c r="E13" t="str">
-        <v>Wed Jan 06 2021 11:48:33 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:57 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F13" t="str">
         <v>PASS</v>
@@ -693,10 +696,10 @@
         <v>Climate</v>
       </c>
       <c r="E14" t="str">
-        <v>Wed Jan 06 2021 11:48:33 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:57 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F14" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -716,7 +719,7 @@
         <v>Economy</v>
       </c>
       <c r="E15" t="str">
-        <v>Wed Jan 06 2021 11:48:33 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:57 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F15" t="str">
         <v>FAIL</v>
@@ -739,7 +742,7 @@
         <v>Culture</v>
       </c>
       <c r="E16" t="str">
-        <v>Wed Jan 06 2021 11:48:33 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:57 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F16" t="str">
         <v>FAIL</v>
@@ -762,7 +765,7 @@
         <v>Demographics</v>
       </c>
       <c r="E17" t="str">
-        <v>Wed Jan 06 2021 11:48:33 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:00:57 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F17" t="str">
         <v>FAIL</v>
@@ -771,193 +774,9 @@
         <v/>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>TC 1</v>
-      </c>
-      <c r="B18" t="str">
-        <v>USA</v>
-      </c>
-      <c r="C18" t="str">
-        <v>3.1</v>
-      </c>
-      <c r="D18" t="str">
-        <v>United States</v>
-      </c>
-      <c r="E18" t="str">
-        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
-      </c>
-      <c r="F18" t="str">
-        <v>FAIL</v>
-      </c>
-      <c r="G18" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v/>
-      </c>
-      <c r="B19" t="str">
-        <v/>
-      </c>
-      <c r="C19" t="str">
-        <v>3.2</v>
-      </c>
-      <c r="D19" t="str">
-        <v>Visa</v>
-      </c>
-      <c r="E19" t="str">
-        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
-      </c>
-      <c r="F19" t="str">
-        <v>FAIL</v>
-      </c>
-      <c r="G19" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v/>
-      </c>
-      <c r="B20" t="str">
-        <v/>
-      </c>
-      <c r="C20" t="str">
-        <v>3.3</v>
-      </c>
-      <c r="D20" t="str">
-        <v>Climate</v>
-      </c>
-      <c r="E20" t="str">
-        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
-      </c>
-      <c r="F20" t="str">
-        <v>FAIL</v>
-      </c>
-      <c r="G20" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v/>
-      </c>
-      <c r="B21" t="str">
-        <v/>
-      </c>
-      <c r="C21" t="str">
-        <v>3.4</v>
-      </c>
-      <c r="D21" t="str">
-        <v>Economy</v>
-      </c>
-      <c r="E21" t="str">
-        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
-      </c>
-      <c r="F21" t="str">
-        <v>FAIL</v>
-      </c>
-      <c r="G21" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v/>
-      </c>
-      <c r="B22" t="str">
-        <v/>
-      </c>
-      <c r="C22" t="str">
-        <v>3.5</v>
-      </c>
-      <c r="D22" t="str">
-        <v>Culture</v>
-      </c>
-      <c r="E22" t="str">
-        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
-      </c>
-      <c r="F22" t="str">
-        <v>FAIL</v>
-      </c>
-      <c r="G22" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v/>
-      </c>
-      <c r="B23" t="str">
-        <v/>
-      </c>
-      <c r="C23" t="str">
-        <v>3.6</v>
-      </c>
-      <c r="D23" t="str">
-        <v>Geography</v>
-      </c>
-      <c r="E23" t="str">
-        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
-      </c>
-      <c r="F23" t="str">
-        <v>FAIL</v>
-      </c>
-      <c r="G23" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v/>
-      </c>
-      <c r="B24" t="str">
-        <v/>
-      </c>
-      <c r="C24" t="str">
-        <v>3.7</v>
-      </c>
-      <c r="D24" t="str">
-        <v>History</v>
-      </c>
-      <c r="E24" t="str">
-        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
-      </c>
-      <c r="F24" t="str">
-        <v>FAIL</v>
-      </c>
-      <c r="G24" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v/>
-      </c>
-      <c r="B25" t="str">
-        <v/>
-      </c>
-      <c r="C25" t="str">
-        <v>3.8</v>
-      </c>
-      <c r="D25" t="str">
-        <v>Political system</v>
-      </c>
-      <c r="E25" t="str">
-        <v>Wed Jan 06 2021 11:48:54 GMT+0600 (Bangladesh Standard Time)</v>
-      </c>
-      <c r="F25" t="str">
-        <v>FAIL</v>
-      </c>
-      <c r="G25" t="str">
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Test_Cases_Res.xlsx
+++ b/Test_Cases_Res.xlsx
@@ -420,7 +420,7 @@
         <v>Bangladesh</v>
       </c>
       <c r="E2" t="str">
-        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:17:50 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F2" t="str">
         <v>PASS</v>
@@ -443,7 +443,7 @@
         <v>Visa</v>
       </c>
       <c r="E3" t="str">
-        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:17:50 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F3" t="str">
         <v>PASS</v>
@@ -466,7 +466,7 @@
         <v>Climate</v>
       </c>
       <c r="E4" t="str">
-        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:17:50 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F4" t="str">
         <v>PASS</v>
@@ -489,7 +489,7 @@
         <v>Official language</v>
       </c>
       <c r="E5" t="str">
-        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:17:50 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F5" t="str">
         <v>FAIL</v>
@@ -512,7 +512,7 @@
         <v>Economy</v>
       </c>
       <c r="E6" t="str">
-        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:17:50 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F6" t="str">
         <v>PASS</v>
@@ -535,7 +535,7 @@
         <v>Culture</v>
       </c>
       <c r="E7" t="str">
-        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:17:50 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F7" t="str">
         <v>PASS</v>
@@ -558,7 +558,7 @@
         <v>Geography</v>
       </c>
       <c r="E8" t="str">
-        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:17:50 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F8" t="str">
         <v>PASS</v>
@@ -581,7 +581,7 @@
         <v>History</v>
       </c>
       <c r="E9" t="str">
-        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:17:50 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F9" t="str">
         <v>PASS</v>
@@ -604,7 +604,7 @@
         <v>Political system</v>
       </c>
       <c r="E10" t="str">
-        <v>Wed Jan 06 2021 14:00:42 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:17:50 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F10" t="str">
         <v>PASS</v>
@@ -627,7 +627,7 @@
         <v>Dhaka</v>
       </c>
       <c r="E11" t="str">
-        <v>Wed Jan 06 2021 14:00:57 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:18:01 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F11" t="str">
         <v>PASS</v>
@@ -650,7 +650,7 @@
         <v>Weather</v>
       </c>
       <c r="E12" t="str">
-        <v>Wed Jan 06 2021 14:00:57 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:18:01 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F12" t="str">
         <v>PASS</v>
@@ -673,10 +673,10 @@
         <v>Events</v>
       </c>
       <c r="E13" t="str">
-        <v>Wed Jan 06 2021 14:00:57 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:18:01 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F13" t="str">
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -696,7 +696,7 @@
         <v>Climate</v>
       </c>
       <c r="E14" t="str">
-        <v>Wed Jan 06 2021 14:00:57 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:18:01 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F14" t="str">
         <v>PASS</v>
@@ -719,7 +719,7 @@
         <v>Economy</v>
       </c>
       <c r="E15" t="str">
-        <v>Wed Jan 06 2021 14:00:57 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:18:01 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F15" t="str">
         <v>FAIL</v>
@@ -742,7 +742,7 @@
         <v>Culture</v>
       </c>
       <c r="E16" t="str">
-        <v>Wed Jan 06 2021 14:00:57 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:18:01 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F16" t="str">
         <v>FAIL</v>
@@ -765,7 +765,7 @@
         <v>Demographics</v>
       </c>
       <c r="E17" t="str">
-        <v>Wed Jan 06 2021 14:00:57 GMT+0600 (Bangladesh Standard Time)</v>
+        <v>Wed Jan 06 2021 14:18:01 GMT+0600 (Bangladesh Standard Time)</v>
       </c>
       <c r="F17" t="str">
         <v>FAIL</v>
